--- a/Code/Results/Cases/Case_3_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_224/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.44867792834148</v>
+        <v>11.77353488965677</v>
       </c>
       <c r="C2">
-        <v>6.876776927534142</v>
+        <v>8.944387694537859</v>
       </c>
       <c r="D2">
-        <v>5.219748739246255</v>
+        <v>5.599688635243058</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.30224314852097</v>
+        <v>26.79448605638795</v>
       </c>
       <c r="G2">
-        <v>2.099597573737638</v>
+        <v>3.651844896953359</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.72880279186609</v>
+        <v>24.47761645504376</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.7225539349965</v>
+        <v>8.769361925343414</v>
       </c>
       <c r="L2">
-        <v>8.092337342756444</v>
+        <v>10.73808365742175</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.8540994621019</v>
+        <v>24.06718093671528</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.49159151196096</v>
+        <v>11.47866591003492</v>
       </c>
       <c r="C3">
-        <v>6.870909255421151</v>
+        <v>8.944852042858106</v>
       </c>
       <c r="D3">
-        <v>5.075920623570771</v>
+        <v>5.548322435852983</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.06539509568607</v>
+        <v>26.84518789600074</v>
       </c>
       <c r="G3">
-        <v>2.10433661745698</v>
+        <v>3.653625469190242</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.87034144779058</v>
+        <v>24.57438878913954</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>11.09080964715107</v>
+        <v>8.56182024436592</v>
       </c>
       <c r="L3">
-        <v>7.808793092590216</v>
+        <v>10.71152179597102</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.88932827743695</v>
+        <v>24.14898156989257</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.86929073495648</v>
+        <v>11.2955164401038</v>
       </c>
       <c r="C4">
-        <v>6.868167716283178</v>
+        <v>8.945513717099514</v>
       </c>
       <c r="D4">
-        <v>4.985014819494925</v>
+        <v>5.516070139281901</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>18.93668346855149</v>
+        <v>26.88318228335211</v>
       </c>
       <c r="G4">
-        <v>2.107338009084006</v>
+        <v>3.65477701149422</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.96945801098634</v>
+        <v>24.63850663504839</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.68370759862477</v>
+        <v>8.432874048652119</v>
       </c>
       <c r="L4">
-        <v>7.634190490402395</v>
+        <v>10.69734869836187</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.92462366182352</v>
+        <v>24.20424250606196</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.60694508045522</v>
+        <v>11.22046445058025</v>
       </c>
       <c r="C5">
-        <v>6.867266454497161</v>
+        <v>8.945878612063595</v>
       </c>
       <c r="D5">
-        <v>4.947348100359857</v>
+        <v>5.502753273956658</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.88837062665001</v>
+        <v>26.90038727994872</v>
       </c>
       <c r="G5">
-        <v>2.108584632756409</v>
+        <v>3.655260970531529</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>16.01279380580826</v>
+        <v>24.665815714076</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.51305213365153</v>
+        <v>8.380020197797096</v>
       </c>
       <c r="L5">
-        <v>7.563015619442963</v>
+        <v>10.6921144915559</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.94230611560536</v>
+        <v>24.22802556711165</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.56285298051954</v>
+        <v>11.20798026893142</v>
       </c>
       <c r="C6">
-        <v>6.867129825875954</v>
+        <v>8.94594497247998</v>
       </c>
       <c r="D6">
-        <v>4.941056957132645</v>
+        <v>5.500531685865099</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>18.88059609771719</v>
+        <v>26.9033480359202</v>
       </c>
       <c r="G6">
-        <v>2.108793069160504</v>
+        <v>3.655342220508803</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>16.02016399669985</v>
+        <v>24.6704216346035</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.48443002974884</v>
+        <v>8.37122751610667</v>
       </c>
       <c r="L6">
-        <v>7.551198895958282</v>
+        <v>10.69127817422919</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.94543756320057</v>
+        <v>24.23205098649571</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.86578814283699</v>
+        <v>11.29450580148034</v>
       </c>
       <c r="C7">
-        <v>6.868154687995618</v>
+        <v>8.945518251758671</v>
       </c>
       <c r="D7">
-        <v>4.984509308500415</v>
+        <v>5.515891239670303</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>18.9360152446387</v>
+        <v>26.88340734926406</v>
       </c>
       <c r="G7">
-        <v>2.10735472555991</v>
+        <v>3.654783478770855</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.97003068997628</v>
+        <v>24.63887015638619</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.68142523554989</v>
+        <v>8.432162387383627</v>
       </c>
       <c r="L7">
-        <v>7.63323055061631</v>
+        <v>10.69727591037274</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.92484895483434</v>
+        <v>24.20455813886583</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.12583960861158</v>
+        <v>11.67236437437729</v>
       </c>
       <c r="C8">
-        <v>6.874574597889927</v>
+        <v>8.944469986239929</v>
       </c>
       <c r="D8">
-        <v>5.170712885929968</v>
+        <v>5.582128908535005</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.21707415401312</v>
+        <v>26.81054143928127</v>
       </c>
       <c r="G8">
-        <v>2.101212891653093</v>
+        <v>3.65244677293595</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.77499338538876</v>
+        <v>24.51000755299808</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.5087527628481</v>
+        <v>8.698159112023781</v>
       </c>
       <c r="L8">
-        <v>7.99473616883186</v>
+        <v>10.72848454987168</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.86332768209747</v>
+        <v>24.09433940775107</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.32390025404273</v>
+        <v>12.39211419633611</v>
       </c>
       <c r="C9">
-        <v>6.894032736149486</v>
+        <v>8.945377714353784</v>
       </c>
       <c r="D9">
-        <v>5.514062697342325</v>
+        <v>5.70612346728321</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.90307955622283</v>
+        <v>26.72225675116641</v>
       </c>
       <c r="G9">
-        <v>2.089871826379545</v>
+        <v>3.648324727916678</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.49536428739828</v>
+        <v>24.29464487244927</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.97646053113139</v>
+        <v>9.204698431873874</v>
       </c>
       <c r="L9">
-        <v>8.695500598447039</v>
+        <v>10.80642084151923</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.85725276589162</v>
+        <v>23.91825239305732</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.77540790663795</v>
+        <v>12.90227809558498</v>
       </c>
       <c r="C10">
-        <v>6.912575795514771</v>
+        <v>8.947818943284785</v>
       </c>
       <c r="D10">
-        <v>5.75161198582572</v>
+        <v>5.793317581915534</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>20.49150382256321</v>
+        <v>26.69084997659483</v>
       </c>
       <c r="G10">
-        <v>2.081933205265446</v>
+        <v>3.645573931080702</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.36125484742236</v>
+        <v>24.15924749101896</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.95851307603938</v>
+        <v>9.563833802249764</v>
       </c>
       <c r="L10">
-        <v>9.200529295295496</v>
+        <v>10.87356895111852</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.93103003967557</v>
+        <v>23.81343202924768</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.40093664855707</v>
+        <v>13.12924552350907</v>
       </c>
       <c r="C11">
-        <v>6.921949369719926</v>
+        <v>8.949307931019533</v>
       </c>
       <c r="D11">
-        <v>5.856236665730836</v>
+        <v>5.832073179595318</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.77777870917006</v>
+        <v>26.68384920494895</v>
       </c>
       <c r="G11">
-        <v>2.078399012218079</v>
+        <v>3.644382199506671</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>15.31773550875466</v>
+        <v>24.10262384704896</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.38419869471946</v>
+        <v>9.723660412434109</v>
       </c>
       <c r="L11">
-        <v>9.427322426378764</v>
+        <v>10.90618665931938</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.98336384825568</v>
+        <v>23.77110463757081</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.63286593068049</v>
+        <v>13.21437735921228</v>
       </c>
       <c r="C12">
-        <v>6.925635222151808</v>
+        <v>8.949925599902866</v>
       </c>
       <c r="D12">
-        <v>5.895343416241746</v>
+        <v>5.846612918765196</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.88886608817562</v>
+        <v>26.68224657648592</v>
       </c>
       <c r="G12">
-        <v>2.077071081486383</v>
+        <v>3.643939448409288</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>15.30394506250346</v>
+        <v>24.08189786285362</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.54236455278976</v>
+        <v>9.783617997089413</v>
       </c>
       <c r="L12">
-        <v>9.512723997228319</v>
+        <v>10.9188288235534</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.00602445411242</v>
+        <v>23.75584864232442</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.58313483544487</v>
+        <v>13.19608019866023</v>
       </c>
       <c r="C13">
-        <v>6.924835323115766</v>
+        <v>8.949790189729004</v>
       </c>
       <c r="D13">
-        <v>5.886944126185997</v>
+        <v>5.843487665991544</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.8648221278816</v>
+        <v>26.68254510030132</v>
       </c>
       <c r="G13">
-        <v>2.0773566245702</v>
+        <v>3.644034423982939</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>15.30679261771897</v>
+        <v>24.08632969773092</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.50843553944813</v>
+        <v>9.770731035106669</v>
       </c>
       <c r="L13">
-        <v>9.494353381753536</v>
+        <v>10.91609330687468</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.00101538810073</v>
+        <v>23.75909990270144</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.42011639009069</v>
+        <v>13.13626616162276</v>
       </c>
       <c r="C14">
-        <v>6.922249867281566</v>
+        <v>8.949357671797918</v>
       </c>
       <c r="D14">
-        <v>5.859464364559559</v>
+        <v>5.833272131977413</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.78686417691304</v>
+        <v>26.68369634290593</v>
       </c>
       <c r="G14">
-        <v>2.078289558458129</v>
+        <v>3.644345603353532</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>15.31654603665546</v>
+        <v>24.10090434585895</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.39727185780279</v>
+        <v>9.728604789874266</v>
       </c>
       <c r="L14">
-        <v>9.434358373059473</v>
+        <v>10.90722095847054</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.98517036001753</v>
+        <v>23.76983402346703</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.31962058557294</v>
+        <v>13.09951980190407</v>
       </c>
       <c r="C15">
-        <v>6.920683992399041</v>
+        <v>8.949099733349005</v>
       </c>
       <c r="D15">
-        <v>5.842565000491172</v>
+        <v>5.826996932328233</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>20.73946197722</v>
+        <v>26.68453805311172</v>
       </c>
       <c r="G15">
-        <v>2.078862339183524</v>
+        <v>3.644537319568646</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>15.3228758242372</v>
+        <v>24.1099250509315</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.32878604127926</v>
+        <v>9.702726062370347</v>
       </c>
       <c r="L15">
-        <v>9.397545679604002</v>
+        <v>10.9018240008528</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.97583927430861</v>
+        <v>23.7765096469423</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.73383312548951</v>
+        <v>12.88733534543563</v>
       </c>
       <c r="C16">
-        <v>6.911982203199527</v>
+        <v>8.94772919875996</v>
       </c>
       <c r="D16">
-        <v>5.744703748086423</v>
+        <v>5.790766048338596</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>20.47317004701755</v>
+        <v>26.69145418498326</v>
       </c>
       <c r="G16">
-        <v>2.082165666282255</v>
+        <v>3.645653009690539</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.36446561161407</v>
+        <v>24.16304810949213</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.93026927617618</v>
+        <v>9.553312570331576</v>
       </c>
       <c r="L16">
-        <v>9.1856434885651</v>
+        <v>10.87147837550209</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.92799996741599</v>
+        <v>23.81630619723136</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.36560457004247</v>
+        <v>12.75579867010706</v>
       </c>
       <c r="C17">
-        <v>6.906885164044851</v>
+        <v>8.946984926697407</v>
       </c>
       <c r="D17">
-        <v>5.683774993680844</v>
+        <v>5.76830276625047</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>20.31457877680578</v>
+        <v>26.69756390261745</v>
       </c>
       <c r="G17">
-        <v>2.084211420282332</v>
+        <v>3.646352689874691</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>15.39458072494665</v>
+        <v>24.19691126702604</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.68039367417249</v>
+        <v>9.460703246699003</v>
       </c>
       <c r="L17">
-        <v>9.054850320902188</v>
+        <v>10.85338782756196</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.90356293527191</v>
+        <v>23.84209353768184</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.15053315959143</v>
+        <v>12.67966581708825</v>
       </c>
       <c r="C18">
-        <v>6.90404170268185</v>
+        <v>8.946592499703211</v>
       </c>
       <c r="D18">
-        <v>5.648407736668752</v>
+        <v>5.755297193002254</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>20.2251118219413</v>
+        <v>26.70176388139152</v>
       </c>
       <c r="G18">
-        <v>2.085395387640236</v>
+        <v>3.646760741555108</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>15.41353727958339</v>
+        <v>24.21685609913497</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.53468973028265</v>
+        <v>9.407106091670672</v>
       </c>
       <c r="L18">
-        <v>8.979346891554169</v>
+        <v>10.84317808926189</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.8912658702772</v>
+        <v>23.8574297275033</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.07714936917848</v>
+        <v>12.65380929809415</v>
       </c>
       <c r="C19">
-        <v>6.903094068580399</v>
+        <v>8.946465773313138</v>
       </c>
       <c r="D19">
-        <v>5.636378163696583</v>
+        <v>5.750879247646639</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>20.19512019706135</v>
+        <v>26.70330368251201</v>
       </c>
       <c r="G19">
-        <v>2.085797533671738</v>
+        <v>3.646899866347041</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>15.42023126975616</v>
+        <v>24.22368934603571</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.48501671983155</v>
+        <v>9.388903973769359</v>
       </c>
       <c r="L19">
-        <v>8.95373743497804</v>
+        <v>10.83975503610376</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.88739990351636</v>
+        <v>23.86270878759803</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.40514180012682</v>
+        <v>12.76985089277573</v>
       </c>
       <c r="C20">
-        <v>6.907418612688905</v>
+        <v>8.947060469535655</v>
       </c>
       <c r="D20">
-        <v>5.69029449453906</v>
+        <v>5.770702887388193</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>20.33127984452611</v>
+        <v>26.69684252481429</v>
       </c>
       <c r="G20">
-        <v>2.083992895290951</v>
+        <v>3.646277626982895</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>15.39120444560557</v>
+        <v>24.19325806570216</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.70719855686294</v>
+        <v>9.47059631086608</v>
       </c>
       <c r="L20">
-        <v>9.068802342729624</v>
+        <v>10.8552934192072</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.90598125708275</v>
+        <v>23.83929625283484</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.46813261246907</v>
+        <v>13.1538577481616</v>
       </c>
       <c r="C21">
-        <v>6.923005567931946</v>
+        <v>8.949483256900304</v>
       </c>
       <c r="D21">
-        <v>5.867549873392592</v>
+        <v>5.836276419636294</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.80968951862691</v>
+        <v>26.68332973992682</v>
       </c>
       <c r="G21">
-        <v>2.078015256929047</v>
+        <v>3.644253971207128</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>15.31360680643556</v>
+        <v>24.09660396939313</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.43000560896335</v>
+        <v>9.740994050660269</v>
       </c>
       <c r="L21">
-        <v>9.451993789202238</v>
+        <v>10.90981915769128</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.98974614091095</v>
+        <v>23.76666016965309</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.13406317878624</v>
+        <v>13.40004040601133</v>
       </c>
       <c r="C22">
-        <v>6.933987664562186</v>
+        <v>8.951380120645785</v>
       </c>
       <c r="D22">
-        <v>5.980403461674681</v>
+        <v>5.878336446458309</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.13798645065793</v>
+        <v>26.68060908048741</v>
       </c>
       <c r="G22">
-        <v>2.074168737425799</v>
+        <v>3.642981105960025</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>15.27865378777853</v>
+        <v>24.03760999904677</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.88473224828563</v>
+        <v>9.914397074473397</v>
       </c>
       <c r="L22">
-        <v>9.699614289637154</v>
+        <v>10.94714469731757</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.06112685685574</v>
+        <v>23.72369181939282</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.78125953223728</v>
+        <v>13.26911126350991</v>
       </c>
       <c r="C23">
-        <v>6.928053063838354</v>
+        <v>8.950339248990117</v>
       </c>
       <c r="D23">
-        <v>5.920450586365806</v>
+        <v>5.855962801140148</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.96133716736684</v>
+        <v>26.68150199195567</v>
       </c>
       <c r="G23">
-        <v>2.076216430455843</v>
+        <v>3.643655923165503</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>15.2958072512912</v>
+        <v>24.0687136491828</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.64365222354778</v>
+        <v>9.822169344489549</v>
       </c>
       <c r="L23">
-        <v>9.567728362862635</v>
+        <v>10.9270712757419</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.02146071032731</v>
+        <v>23.74621203366021</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.38727752527816</v>
+        <v>12.76349946727891</v>
       </c>
       <c r="C24">
-        <v>6.907177170001388</v>
+        <v>8.947026206102494</v>
       </c>
       <c r="D24">
-        <v>5.687348081174307</v>
+        <v>5.769618076067332</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.3237239683578</v>
+        <v>26.69716651850003</v>
       </c>
       <c r="G24">
-        <v>2.084091665979346</v>
+        <v>3.646311544858347</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>15.39272575714385</v>
+        <v>24.194908194005</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.69508644533501</v>
+        <v>9.466124757490601</v>
       </c>
       <c r="L24">
-        <v>9.062495590789773</v>
+        <v>10.85443130648416</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.90488248726318</v>
+        <v>23.84055931465987</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.75818555993575</v>
+        <v>12.20028883803924</v>
       </c>
       <c r="C25">
-        <v>6.8880276924616</v>
+        <v>8.944818217075543</v>
       </c>
       <c r="D25">
-        <v>5.423667799764378</v>
+        <v>5.673243368419964</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.70278773618482</v>
+        <v>26.74027438345261</v>
       </c>
       <c r="G25">
-        <v>2.09286811316266</v>
+        <v>3.649390880538799</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.55913670896755</v>
+        <v>24.34890204215204</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.59621962708958</v>
+        <v>9.069691479443371</v>
       </c>
       <c r="L25">
-        <v>8.507336421831456</v>
+        <v>10.78357582349425</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.84576225447865</v>
+        <v>23.96158659736767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_224/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_224/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.77353488965677</v>
+        <v>14.44867792834149</v>
       </c>
       <c r="C2">
-        <v>8.944387694537859</v>
+        <v>6.876776927534261</v>
       </c>
       <c r="D2">
-        <v>5.599688635243058</v>
+        <v>5.219748739246411</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>26.79448605638795</v>
+        <v>19.30224314852083</v>
       </c>
       <c r="G2">
-        <v>3.651844896953359</v>
+        <v>2.099597573737771</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>24.47761645504376</v>
+        <v>15.72880279186601</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.769361925343414</v>
+        <v>11.72255393499653</v>
       </c>
       <c r="L2">
-        <v>10.73808365742175</v>
+        <v>8.092337342756499</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.06718093671528</v>
+        <v>15.85409946210178</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.47866591003492</v>
+        <v>13.49159151196094</v>
       </c>
       <c r="C3">
-        <v>8.944852042858106</v>
+        <v>6.870909255421276</v>
       </c>
       <c r="D3">
-        <v>5.548322435852983</v>
+        <v>5.075920623570879</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>26.84518789600074</v>
+        <v>19.06539509568603</v>
       </c>
       <c r="G3">
-        <v>3.653625469190242</v>
+        <v>2.104336617456981</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>24.57438878913954</v>
+        <v>15.87034144779063</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.56182024436592</v>
+        <v>11.09080964715106</v>
       </c>
       <c r="L3">
-        <v>10.71152179597102</v>
+        <v>7.80879309259023</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.14898156989257</v>
+        <v>15.88932827743693</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.2955164401038</v>
+        <v>12.86929073495654</v>
       </c>
       <c r="C4">
-        <v>8.945513717099514</v>
+        <v>6.868167716282911</v>
       </c>
       <c r="D4">
-        <v>5.516070139281901</v>
+        <v>4.985014819494879</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.88318228335211</v>
+        <v>18.93668346855132</v>
       </c>
       <c r="G4">
-        <v>3.65477701149422</v>
+        <v>2.10733800908414</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>24.63850663504839</v>
+        <v>15.96945801098612</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.432874048652119</v>
+        <v>10.6837075986248</v>
       </c>
       <c r="L4">
-        <v>10.69734869836187</v>
+        <v>7.634190490402369</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.20424250606196</v>
+        <v>15.92462366182337</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.22046445058025</v>
+        <v>12.60694508045531</v>
       </c>
       <c r="C5">
-        <v>8.945878612063595</v>
+        <v>6.867266454497158</v>
       </c>
       <c r="D5">
-        <v>5.502753273956658</v>
+        <v>4.947348100359796</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>26.90038727994872</v>
+        <v>18.88837062664985</v>
       </c>
       <c r="G5">
-        <v>3.655260970531529</v>
+        <v>2.108584632756677</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>24.665815714076</v>
+        <v>16.01279380580807</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.380020197797096</v>
+        <v>10.51305213365164</v>
       </c>
       <c r="L5">
-        <v>10.6921144915559</v>
+        <v>7.563015619443004</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.22802556711165</v>
+        <v>15.94230611560515</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.20798026893142</v>
+        <v>12.56285298051949</v>
       </c>
       <c r="C6">
-        <v>8.94594497247998</v>
+        <v>6.867129825876217</v>
       </c>
       <c r="D6">
-        <v>5.500531685865099</v>
+        <v>4.941056957132584</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>26.9033480359202</v>
+        <v>18.88059609771727</v>
       </c>
       <c r="G6">
-        <v>3.655342220508803</v>
+        <v>2.108793069160369</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>24.6704216346035</v>
+        <v>16.02016399669998</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.37122751610667</v>
+        <v>10.48443002974885</v>
       </c>
       <c r="L6">
-        <v>10.69127817422919</v>
+        <v>7.551198895958263</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.23205098649571</v>
+        <v>15.94543756320062</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.29450580148034</v>
+        <v>12.86578814283699</v>
       </c>
       <c r="C7">
-        <v>8.945518251758671</v>
+        <v>6.868154687995617</v>
       </c>
       <c r="D7">
-        <v>5.515891239670303</v>
+        <v>4.984509308500408</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>26.88340734926406</v>
+        <v>18.93601524463861</v>
       </c>
       <c r="G7">
-        <v>3.654783478770855</v>
+        <v>2.107354725559777</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>24.63887015638619</v>
+        <v>15.97003068997621</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.432162387383627</v>
+        <v>10.68142523554989</v>
       </c>
       <c r="L7">
-        <v>10.69727591037274</v>
+        <v>7.633230550616283</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.20455813886583</v>
+        <v>15.92484895483427</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.67236437437729</v>
+        <v>14.12583960861155</v>
       </c>
       <c r="C8">
-        <v>8.944469986239929</v>
+        <v>6.874574597890186</v>
       </c>
       <c r="D8">
-        <v>5.582128908535005</v>
+        <v>5.170712885929926</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>26.81054143928127</v>
+        <v>19.21707415401307</v>
       </c>
       <c r="G8">
-        <v>3.65244677293595</v>
+        <v>2.101212891653361</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>24.51000755299808</v>
+        <v>15.77499338538875</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.698159112023781</v>
+        <v>11.50875276284815</v>
       </c>
       <c r="L8">
-        <v>10.72848454987168</v>
+        <v>7.994736168831854</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.09433940775107</v>
+        <v>15.86332768209738</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.39211419633611</v>
+        <v>16.3239002540427</v>
       </c>
       <c r="C9">
-        <v>8.945377714353784</v>
+        <v>6.894032736149343</v>
       </c>
       <c r="D9">
-        <v>5.70612346728321</v>
+        <v>5.514062697342316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.72225675116641</v>
+        <v>19.90307955622294</v>
       </c>
       <c r="G9">
-        <v>3.648324727916678</v>
+        <v>2.089871826379679</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>24.29464487244927</v>
+        <v>15.49536428739844</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.204698431873874</v>
+        <v>12.97646053113136</v>
       </c>
       <c r="L9">
-        <v>10.80642084151923</v>
+        <v>8.695500598446998</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>23.91825239305732</v>
+        <v>15.85725276589177</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.90227809558498</v>
+        <v>17.77540790663795</v>
       </c>
       <c r="C10">
-        <v>8.947818943284785</v>
+        <v>6.912575795514758</v>
       </c>
       <c r="D10">
-        <v>5.793317581915534</v>
+        <v>5.751611985825574</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.69084997659483</v>
+        <v>20.49150382256326</v>
       </c>
       <c r="G10">
-        <v>3.645573931080702</v>
+        <v>2.081933205265312</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>24.15924749101896</v>
+        <v>15.36125484742234</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.563833802249764</v>
+        <v>13.9585130760394</v>
       </c>
       <c r="L10">
-        <v>10.87356895111852</v>
+        <v>9.200529295295471</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.81343202924768</v>
+        <v>15.93103003967558</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.12924552350907</v>
+        <v>18.40093664855708</v>
       </c>
       <c r="C11">
-        <v>8.949307931019533</v>
+        <v>6.9219493697199</v>
       </c>
       <c r="D11">
-        <v>5.832073179595318</v>
+        <v>5.856236665730908</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.68384920494895</v>
+        <v>20.7777787091701</v>
       </c>
       <c r="G11">
-        <v>3.644382199506671</v>
+        <v>2.07839901221808</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>24.10262384704896</v>
+        <v>15.31773550875475</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.723660412434109</v>
+        <v>14.38419869471938</v>
       </c>
       <c r="L11">
-        <v>10.90618665931938</v>
+        <v>9.427322426378796</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>23.77110463757081</v>
+        <v>15.98336384825578</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.21437735921228</v>
+        <v>18.63286593068051</v>
       </c>
       <c r="C12">
-        <v>8.949925599902866</v>
+        <v>6.925635222151663</v>
       </c>
       <c r="D12">
-        <v>5.846612918765196</v>
+        <v>5.895343416241758</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.68224657648592</v>
+        <v>20.88886608817556</v>
       </c>
       <c r="G12">
-        <v>3.643939448409288</v>
+        <v>2.077071081486383</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>24.08189786285362</v>
+        <v>15.30394506250337</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.783617997089413</v>
+        <v>14.54236455278979</v>
       </c>
       <c r="L12">
-        <v>10.9188288235534</v>
+        <v>9.51272399722828</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>23.75584864232442</v>
+        <v>16.00602445411233</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.19608019866023</v>
+        <v>18.5831348354449</v>
       </c>
       <c r="C13">
-        <v>8.949790189729004</v>
+        <v>6.924835323115371</v>
       </c>
       <c r="D13">
-        <v>5.843487665991544</v>
+        <v>5.886944126185891</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.68254510030132</v>
+        <v>20.86482212788162</v>
       </c>
       <c r="G13">
-        <v>3.644034423982939</v>
+        <v>2.077356624570067</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>24.08632969773092</v>
+        <v>15.30679261771886</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.770731035106669</v>
+        <v>14.50843553944812</v>
       </c>
       <c r="L13">
-        <v>10.91609330687468</v>
+        <v>9.494353381753548</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>23.75909990270144</v>
+        <v>16.0010153881007</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.13626616162276</v>
+        <v>18.42011639009082</v>
       </c>
       <c r="C14">
-        <v>8.949357671797918</v>
+        <v>6.922249867281298</v>
       </c>
       <c r="D14">
-        <v>5.833272131977413</v>
+        <v>5.85946436455941</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.68369634290593</v>
+        <v>20.78686417691305</v>
       </c>
       <c r="G14">
-        <v>3.644345603353532</v>
+        <v>2.078289558457995</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>24.10090434585895</v>
+        <v>15.31654603665535</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.728604789874266</v>
+        <v>14.39727185780285</v>
       </c>
       <c r="L14">
-        <v>10.90722095847054</v>
+        <v>9.434358373059426</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>23.76983402346703</v>
+        <v>15.98517036001748</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.09951980190407</v>
+        <v>18.31962058557294</v>
       </c>
       <c r="C15">
-        <v>8.949099733349005</v>
+        <v>6.920683992399028</v>
       </c>
       <c r="D15">
-        <v>5.826996932328233</v>
+        <v>5.84256500049128</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.68453805311172</v>
+        <v>20.73946197722006</v>
       </c>
       <c r="G15">
-        <v>3.644537319568646</v>
+        <v>2.078862339183524</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>24.1099250509315</v>
+        <v>15.32287582423729</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.702726062370347</v>
+        <v>14.32878604127925</v>
       </c>
       <c r="L15">
-        <v>10.9018240008528</v>
+        <v>9.397545679603969</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>23.7765096469423</v>
+        <v>15.97583927430866</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.88733534543563</v>
+        <v>17.73383312548954</v>
       </c>
       <c r="C16">
-        <v>8.94772919875996</v>
+        <v>6.911982203199663</v>
       </c>
       <c r="D16">
-        <v>5.790766048338596</v>
+        <v>5.744703748086375</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.69145418498326</v>
+        <v>20.47317004701739</v>
       </c>
       <c r="G16">
-        <v>3.645653009690539</v>
+        <v>2.082165666282388</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>24.16304810949213</v>
+        <v>15.36446561161389</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.553312570331576</v>
+        <v>13.93026927617629</v>
       </c>
       <c r="L16">
-        <v>10.87147837550209</v>
+        <v>9.185643488565068</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>23.81630619723136</v>
+        <v>15.9279999674158</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.75579867010706</v>
+        <v>17.36560457004246</v>
       </c>
       <c r="C17">
-        <v>8.946984926697407</v>
+        <v>6.906885164044841</v>
       </c>
       <c r="D17">
-        <v>5.76830276625047</v>
+        <v>5.683774993680822</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.69756390261745</v>
+        <v>20.31457877680577</v>
       </c>
       <c r="G17">
-        <v>3.646352689874691</v>
+        <v>2.084211420282199</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>24.19691126702604</v>
+        <v>15.39458072494666</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.460703246699003</v>
+        <v>13.68039367417247</v>
       </c>
       <c r="L17">
-        <v>10.85338782756196</v>
+        <v>9.05485032090216</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>23.84209353768184</v>
+        <v>15.90356293527192</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.67966581708825</v>
+        <v>17.15053315959142</v>
       </c>
       <c r="C18">
-        <v>8.946592499703211</v>
+        <v>6.904041702681973</v>
       </c>
       <c r="D18">
-        <v>5.755297193002254</v>
+        <v>5.648407736668685</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>26.70176388139152</v>
+        <v>20.22511182194126</v>
       </c>
       <c r="G18">
-        <v>3.646760741555108</v>
+        <v>2.085395387640236</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>24.21685609913497</v>
+        <v>15.41353727958339</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.407106091670672</v>
+        <v>13.53468973028264</v>
       </c>
       <c r="L18">
-        <v>10.84317808926189</v>
+        <v>8.979346891554185</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>23.8574297275033</v>
+        <v>15.89126587027715</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.65380929809415</v>
+        <v>17.07714936917857</v>
       </c>
       <c r="C19">
-        <v>8.946465773313138</v>
+        <v>6.90309406858052</v>
       </c>
       <c r="D19">
-        <v>5.750879247646639</v>
+        <v>5.636378163696544</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>26.70330368251201</v>
+        <v>20.1951201970613</v>
       </c>
       <c r="G19">
-        <v>3.646899866347041</v>
+        <v>2.085797533671606</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>24.22368934603571</v>
+        <v>15.42023126975616</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.388903973769359</v>
+        <v>13.48501671983166</v>
       </c>
       <c r="L19">
-        <v>10.83975503610376</v>
+        <v>8.95373743497802</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.86270878759803</v>
+        <v>15.8873999035163</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.76985089277573</v>
+        <v>17.40514180012686</v>
       </c>
       <c r="C20">
-        <v>8.947060469535655</v>
+        <v>6.907418612688899</v>
       </c>
       <c r="D20">
-        <v>5.770702887388193</v>
+        <v>5.690294494539054</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.69684252481429</v>
+        <v>20.33127984452609</v>
       </c>
       <c r="G20">
-        <v>3.646277626982895</v>
+        <v>2.08399289529082</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>24.19325806570216</v>
+        <v>15.39120444560547</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.47059631086608</v>
+        <v>13.70719855686296</v>
       </c>
       <c r="L20">
-        <v>10.8552934192072</v>
+        <v>9.068802342729622</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>23.83929625283484</v>
+        <v>15.90598125708266</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.1538577481616</v>
+        <v>18.46813261246903</v>
       </c>
       <c r="C21">
-        <v>8.949483256900304</v>
+        <v>6.923005567932206</v>
       </c>
       <c r="D21">
-        <v>5.836276419636294</v>
+        <v>5.867549873392544</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.68332973992682</v>
+        <v>20.80968951862689</v>
       </c>
       <c r="G21">
-        <v>3.644253971207128</v>
+        <v>2.078015256929047</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>24.09660396939313</v>
+        <v>15.31360680643562</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.740994050660269</v>
+        <v>14.43000560896333</v>
       </c>
       <c r="L21">
-        <v>10.90981915769128</v>
+        <v>9.451993789202222</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>23.76666016965309</v>
+        <v>15.98974614091091</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.40004040601133</v>
+        <v>19.13406317878626</v>
       </c>
       <c r="C22">
-        <v>8.951380120645785</v>
+        <v>6.9339876645623</v>
       </c>
       <c r="D22">
-        <v>5.878336446458309</v>
+        <v>5.980403461674534</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.68060908048741</v>
+        <v>21.13798645065798</v>
       </c>
       <c r="G22">
-        <v>3.642981105960025</v>
+        <v>2.074168737425665</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>24.03760999904677</v>
+        <v>15.27865378777858</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.914397074473397</v>
+        <v>14.88473224828565</v>
       </c>
       <c r="L22">
-        <v>10.94714469731757</v>
+        <v>9.699614289637143</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>23.72369181939282</v>
+        <v>16.06112685685579</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.26911126350991</v>
+        <v>18.78125953223729</v>
       </c>
       <c r="C23">
-        <v>8.950339248990117</v>
+        <v>6.928053063838341</v>
       </c>
       <c r="D23">
-        <v>5.855962801140148</v>
+        <v>5.920450586365942</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.68150199195567</v>
+        <v>20.96133716736677</v>
       </c>
       <c r="G23">
-        <v>3.643655923165503</v>
+        <v>2.076216430455708</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>24.0687136491828</v>
+        <v>15.29580725129115</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.822169344489549</v>
+        <v>14.64365222354776</v>
       </c>
       <c r="L23">
-        <v>10.9270712757419</v>
+        <v>9.567728362862619</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>23.74621203366021</v>
+        <v>16.02146071032729</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.76349946727891</v>
+        <v>17.38727752527815</v>
       </c>
       <c r="C24">
-        <v>8.947026206102494</v>
+        <v>6.907177170001251</v>
       </c>
       <c r="D24">
-        <v>5.769618076067332</v>
+        <v>5.687348081174214</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.69716651850003</v>
+        <v>20.32372396835788</v>
       </c>
       <c r="G24">
-        <v>3.646311544858347</v>
+        <v>2.084091665979346</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>24.194908194005</v>
+        <v>15.39272575714388</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.466124757490601</v>
+        <v>13.69508644533501</v>
       </c>
       <c r="L24">
-        <v>10.85443130648416</v>
+        <v>9.062495590789744</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>23.84055931465987</v>
+        <v>15.90488248726321</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.20028883803924</v>
+        <v>15.7581855599357</v>
       </c>
       <c r="C25">
-        <v>8.944818217075543</v>
+        <v>6.888027692461589</v>
       </c>
       <c r="D25">
-        <v>5.673243368419964</v>
+        <v>5.42366779976444</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.74027438345261</v>
+        <v>19.70278773618483</v>
       </c>
       <c r="G25">
-        <v>3.649390880538799</v>
+        <v>2.092868113162528</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>24.34890204215204</v>
+        <v>15.55913670896762</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.069691479443371</v>
+        <v>12.59621962708953</v>
       </c>
       <c r="L25">
-        <v>10.78357582349425</v>
+        <v>8.507336421831461</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>23.96158659736767</v>
+        <v>15.84576225447871</v>
       </c>
     </row>
   </sheetData>
